--- a/output/df_final_lodging.xlsx
+++ b/output/df_final_lodging.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1505,35 +1505,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26613</t>
+          <t>1102653</t>
         </is>
       </c>
       <c r="D12">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VIP RECREATIONAL LODGING</t>
+          <t>CAT C-TEMPORARY LODGING</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>6772</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1543,54 +1543,49 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>RECREATIONAL LODGING (VIP) - UPH</t>
+          <t>TEMP LODGING FACILITY (ADDN)</t>
         </is>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M12" s="2">
         <v>43003</v>
       </c>
       <c r="N12" s="2">
-        <v>27211</v>
+        <v>40403</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P12">
-        <v>1693.59</v>
+        <v>17747</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1693.59</v>
+        <v>17747</v>
       </c>
       <c r="U12">
-        <v>1872864</v>
+        <v>19625598</v>
       </c>
       <c r="V12">
-        <v>18600</v>
+        <v>194907.95098</v>
       </c>
       <c r="W12">
-        <v>46821.60000000001</v>
+        <v>490639.95</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>46821.60000000001</v>
+        <v>490639.95</v>
       </c>
     </row>
     <row r="13">
@@ -1606,35 +1601,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26621</t>
+          <t>24976</t>
         </is>
       </c>
       <c r="D13">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VIP RECREATIONAL LODGING</t>
+          <t>CATCTEMPORARY LODGING-10 UNITS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1644,54 +1639,49 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>RECREATIONAL LODGING (VIP) - UPH</t>
+          <t>TEMPORARY LODGING FACILITY</t>
         </is>
       </c>
       <c r="L13">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" s="2">
-        <v>43014</v>
+        <v>42993</v>
       </c>
       <c r="N13" s="2">
-        <v>27211</v>
+        <v>37438</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P13">
-        <v>1315.3</v>
+        <v>5230</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1315.3</v>
+        <v>5230</v>
       </c>
       <c r="U13">
-        <v>1454530</v>
+        <v>5783618</v>
       </c>
       <c r="V13">
-        <v>14445.392156</v>
+        <v>57438.921568</v>
       </c>
       <c r="W13">
-        <v>36363.25</v>
+        <v>144590.45</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>36363.25</v>
+        <v>144590.45</v>
       </c>
     </row>
     <row r="14">
@@ -1707,7 +1697,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1102653</t>
+          <t>18774</t>
         </is>
       </c>
       <c r="D14">
@@ -1720,7 +1710,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CAT C-TEMPORARY LODGING</t>
+          <t>CATCTEMPORARY LODGING FACILITY</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1735,7 +1725,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6772</t>
+          <t>3038</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1745,25 +1735,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>TEMP LODGING FACILITY (ADDN)</t>
+          <t>TEMPORARY LODGING FACILITY</t>
         </is>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M14" s="2">
-        <v>43003</v>
+        <v>43076</v>
       </c>
       <c r="N14" s="2">
-        <v>40403</v>
+        <v>30498</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P14">
-        <v>17747</v>
+        <v>11442</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1772,22 +1762,22 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>17747</v>
+        <v>11442</v>
       </c>
       <c r="U14">
-        <v>19625598</v>
+        <v>12653186</v>
       </c>
       <c r="V14">
-        <v>194907.95098</v>
+        <v>125662.745098</v>
       </c>
       <c r="W14">
-        <v>490639.95</v>
+        <v>316329.65</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
-        <v>490639.95</v>
+        <v>316329.65</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +1793,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24976</t>
+          <t>24977</t>
         </is>
       </c>
       <c r="D15">
@@ -1816,7 +1806,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CATCTEMPORARY LODGING-10 UNITS</t>
+          <t>CATCTEMPORARY LODGING-20 UNITS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1831,7 +1821,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>6536</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1845,7 +1835,7 @@
         </is>
       </c>
       <c r="L15">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M15" s="2">
         <v>42993</v>
@@ -1859,7 +1849,7 @@
         </is>
       </c>
       <c r="P15">
-        <v>5230</v>
+        <v>10198</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1868,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5230</v>
+        <v>10198</v>
       </c>
       <c r="U15">
-        <v>5783618</v>
+        <v>11277503</v>
       </c>
       <c r="V15">
-        <v>57438.921568</v>
+        <v>112000.411764</v>
       </c>
       <c r="W15">
-        <v>144590.45</v>
+        <v>281937.575</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>144590.45</v>
+        <v>281937.575</v>
       </c>
     </row>
     <row r="16">
@@ -1899,7 +1889,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18774</t>
+          <t>25335</t>
         </is>
       </c>
       <c r="D16">
@@ -1912,7 +1902,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CATCTEMPORARY LODGING FACILITY</t>
+          <t>CATCTEMPORARY LODGING-20 UNITS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1927,7 +1917,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3038</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1941,21 +1931,21 @@
         </is>
       </c>
       <c r="L16">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M16" s="2">
-        <v>43076</v>
+        <v>42996</v>
       </c>
       <c r="N16" s="2">
-        <v>30498</v>
+        <v>37382</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P16">
-        <v>11442</v>
+        <v>10198</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1964,66 +1954,66 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>11442</v>
+        <v>10198</v>
       </c>
       <c r="U16">
-        <v>12653186</v>
+        <v>11277503</v>
       </c>
       <c r="V16">
-        <v>125662.745098</v>
+        <v>112000.411764</v>
       </c>
       <c r="W16">
-        <v>316329.65</v>
+        <v>281937.575</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16">
-        <v>316329.65</v>
+        <v>281937.575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MCIPAC</t>
+          <t>MCIWEST</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MCB Hawaii</t>
+          <t>MCB Pendleton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24977</t>
+          <t>22706</t>
         </is>
       </c>
       <c r="D17">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CATCTEMPORARY LODGING-20 UNITS</t>
+          <t>BOQ PERM PAR W1/W2 &amp; 01/02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6536</t>
+          <t>210440</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2033,65 +2023,70 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FACILITY</t>
+          <t>BOQ/ALL-HANDS CLUB ($MC)</t>
         </is>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M17" s="2">
-        <v>42993</v>
+        <v>43629</v>
       </c>
       <c r="N17" s="2">
-        <v>37438</v>
+        <v>25673</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P17">
-        <v>10198</v>
+        <v>100289</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T17">
-        <v>10198</v>
+        <v>108273</v>
       </c>
       <c r="U17">
-        <v>11277503</v>
+        <v>47079567</v>
       </c>
       <c r="V17">
-        <v>112000.411764</v>
+        <v>477574.264705</v>
       </c>
       <c r="W17">
-        <v>281937.575</v>
+        <v>1176989.175</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.9262604712162774</v>
       </c>
       <c r="Y17">
-        <v>281937.575</v>
+        <v>1090198.547851958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MCIPAC</t>
+          <t>MCIWEST</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCB Hawaii</t>
+          <t>MCB Pendleton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>25335</t>
+          <t>921138</t>
         </is>
       </c>
       <c r="D18">
@@ -2104,7 +2099,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CATCTEMPORARY LODGING-20 UNITS</t>
+          <t>MCX TRANSIENT LODGING ($MC)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2119,7 +2114,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>13010</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2133,13 +2128,13 @@
         </is>
       </c>
       <c r="L18">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="2">
-        <v>42996</v>
+        <v>43698</v>
       </c>
       <c r="N18" s="2">
-        <v>37382</v>
+        <v>37599</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2147,7 +2142,7 @@
         </is>
       </c>
       <c r="P18">
-        <v>10198</v>
+        <v>12305</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2156,22 +2151,22 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>10198</v>
+        <v>12305</v>
       </c>
       <c r="U18">
-        <v>11277503</v>
+        <v>5519604</v>
       </c>
       <c r="V18">
-        <v>112000.411764</v>
+        <v>89258.558823</v>
       </c>
       <c r="W18">
-        <v>281937.575</v>
+        <v>137990.1</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>281937.575</v>
+        <v>137990.1</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +2182,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22706</t>
+          <t>18650</t>
         </is>
       </c>
       <c r="D19">
@@ -2198,11 +2193,6 @@
           <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>BOQ PERM PAR W1/W2 &amp; 01/02</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>L (TDY)</t>
@@ -2215,7 +2205,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>210440</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2225,17 +2215,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BOQ/ALL-HANDS CLUB ($MC)</t>
+          <t>TRANSIENT GENERALS QTRS</t>
         </is>
       </c>
       <c r="L19">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M19" s="2">
-        <v>43629</v>
+        <v>43703</v>
       </c>
       <c r="N19" s="2">
-        <v>25673</v>
+        <v>15738</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2243,13 +2233,13 @@
         </is>
       </c>
       <c r="P19">
-        <v>100289</v>
+        <v>5872</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2257,22 +2247,22 @@
         </is>
       </c>
       <c r="T19">
-        <v>108273</v>
+        <v>5872</v>
       </c>
       <c r="U19">
-        <v>47079567</v>
+        <v>2633979</v>
       </c>
       <c r="V19">
-        <v>477574.264705</v>
+        <v>22857.509803</v>
       </c>
       <c r="W19">
-        <v>1176989.175</v>
+        <v>65849.47500000001</v>
       </c>
       <c r="X19">
-        <v>0.9262604712162774</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>1090198.547851958</v>
+        <v>65849.47500000001</v>
       </c>
     </row>
     <row r="20">
@@ -2288,7 +2278,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>921138</t>
+          <t>1010443</t>
         </is>
       </c>
       <c r="D20">
@@ -2301,7 +2291,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MCX TRANSIENT LODGING ($MC)</t>
+          <t>TEMP LODGING ($MC)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2316,7 +2306,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13010</t>
+          <t>202870</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2326,17 +2316,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FACILITY</t>
+          <t>TRANSIENT LODGING FAC (TLF) ($MC)</t>
         </is>
       </c>
       <c r="L20">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" s="2">
-        <v>43698</v>
+        <v>43633</v>
       </c>
       <c r="N20" s="2">
-        <v>37599</v>
+        <v>39979</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2344,7 +2334,7 @@
         </is>
       </c>
       <c r="P20">
-        <v>12305</v>
+        <v>45032</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2353,22 +2343,22 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>12305</v>
+        <v>45032</v>
       </c>
       <c r="U20">
-        <v>5519604</v>
+        <v>20199821</v>
       </c>
       <c r="V20">
-        <v>89258.558823</v>
+        <v>257342.186274</v>
       </c>
       <c r="W20">
-        <v>137990.1</v>
+        <v>504995.525</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
       <c r="Y20">
-        <v>137990.1</v>
+        <v>504995.525</v>
       </c>
     </row>
     <row r="21">
@@ -2384,30 +2374,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18650</t>
+          <t>24975</t>
         </is>
       </c>
       <c r="D21">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TEMPORARY LODGING ($MC)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1310</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2417,17 +2412,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>TRANSIENT GENERALS QTRS</t>
+          <t>WARD LODGING FACILITY ($MC)</t>
         </is>
       </c>
       <c r="L21">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M21" s="2">
-        <v>43703</v>
+        <v>43595</v>
       </c>
       <c r="N21" s="2">
-        <v>15738</v>
+        <v>31517</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2435,80 +2430,75 @@
         </is>
       </c>
       <c r="P21">
-        <v>5872</v>
+        <v>41556</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>40</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>5872</v>
+        <v>41556</v>
       </c>
       <c r="U21">
-        <v>2633979</v>
+        <v>18640606</v>
       </c>
       <c r="V21">
-        <v>22857.509803</v>
+        <v>169416.980392</v>
       </c>
       <c r="W21">
-        <v>65849.47500000001</v>
+        <v>466015.15</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>65849.47500000001</v>
+        <v>466015.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MCIWEST</t>
+          <t>MCIEAST</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCB Pendleton</t>
+          <t>MCAS Beaufort</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1010443</t>
+          <t>548411</t>
         </is>
       </c>
       <c r="D22">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TEMP LODGING ($MC)</t>
+          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>202870</t>
+          <t>431</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2518,65 +2508,70 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>TRANSIENT LODGING FAC (TLF) ($MC)</t>
+          <t>BOQ</t>
         </is>
       </c>
       <c r="L22">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M22" s="2">
-        <v>43633</v>
+        <v>42795</v>
       </c>
       <c r="N22" s="2">
-        <v>39979</v>
+        <v>20393</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P22">
-        <v>45032</v>
+        <v>72294</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T22">
-        <v>45032</v>
+        <v>92220</v>
       </c>
       <c r="U22">
-        <v>20199821</v>
+        <v>42594226</v>
       </c>
       <c r="V22">
-        <v>257342.186274</v>
+        <v>310146.5</v>
       </c>
       <c r="W22">
-        <v>504995.525</v>
+        <v>1064855.65</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.7839297332465842</v>
       </c>
       <c r="Y22">
-        <v>504995.525</v>
+        <v>834772.0056506181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MCIWEST</t>
+          <t>MCIEAST</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MCB Pendleton</t>
+          <t>MCAS Beaufort</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>24975</t>
+          <t>31834</t>
         </is>
       </c>
       <c r="D23">
@@ -2589,7 +2584,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING ($MC)</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2604,7 +2599,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1310</t>
+          <t>1108A</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2614,17 +2609,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>WARD LODGING FACILITY ($MC)</t>
+          <t>TEMPORARY LODGING FAC ADD</t>
         </is>
       </c>
       <c r="L23">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M23" s="2">
-        <v>43595</v>
+        <v>42776</v>
       </c>
       <c r="N23" s="2">
-        <v>31517</v>
+        <v>37481</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2632,7 +2627,7 @@
         </is>
       </c>
       <c r="P23">
-        <v>41556</v>
+        <v>14114</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2641,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>41556</v>
+        <v>14114</v>
       </c>
       <c r="U23">
-        <v>18640606</v>
+        <v>6037955</v>
       </c>
       <c r="V23">
-        <v>169416.980392</v>
+        <v>60550.088235</v>
       </c>
       <c r="W23">
-        <v>466015.15</v>
+        <v>150948.875</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
       <c r="Y23">
-        <v>466015.15</v>
+        <v>150948.875</v>
       </c>
     </row>
     <row r="24">
@@ -2672,35 +2667,35 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>548411</t>
+          <t>624330</t>
         </is>
       </c>
       <c r="D24">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2710,17 +2705,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BOQ</t>
+          <t>TEMPORARY LODGING FACILITY</t>
         </is>
       </c>
       <c r="L24">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" s="2">
-        <v>42795</v>
+        <v>42776</v>
       </c>
       <c r="N24" s="2">
-        <v>20393</v>
+        <v>32813</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2728,36 +2723,31 @@
         </is>
       </c>
       <c r="P24">
-        <v>72294</v>
+        <v>30077</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>74</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>92220</v>
+        <v>30077</v>
       </c>
       <c r="U24">
-        <v>42594226</v>
+        <v>12866910</v>
       </c>
       <c r="V24">
-        <v>310146.5</v>
+        <v>129032.509803</v>
       </c>
       <c r="W24">
-        <v>1064855.65</v>
+        <v>321672.75</v>
       </c>
       <c r="X24">
-        <v>0.7839297332465842</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>834772.0056506181</v>
+        <v>321672.75</v>
       </c>
     </row>
     <row r="25">
@@ -2768,40 +2758,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCAS Beaufort</t>
+          <t>MCAS New River</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31834</t>
+          <t>43715</t>
         </is>
       </c>
       <c r="D25">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CAT-C</t>
+          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1108A</t>
+          <t>AS705</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2811,17 +2801,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FAC ADD</t>
+          <t>BOQ</t>
         </is>
       </c>
       <c r="L25">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M25" s="2">
-        <v>42776</v>
+        <v>44140</v>
       </c>
       <c r="N25" s="2">
-        <v>37481</v>
+        <v>24763</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2829,75 +2819,80 @@
         </is>
       </c>
       <c r="P25">
-        <v>14114</v>
+        <v>74692</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>123</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T25">
-        <v>14114</v>
+        <v>74692</v>
       </c>
       <c r="U25">
-        <v>6037955</v>
+        <v>31332713</v>
       </c>
       <c r="V25">
-        <v>60550.088235</v>
+        <v>314025.421568</v>
       </c>
       <c r="W25">
-        <v>150948.875</v>
+        <v>783317.8250000001</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>150948.875</v>
+        <v>783317.8250000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MCIEAST</t>
+          <t>MCIPAC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MCAS Beaufort</t>
+          <t>MCAS Iwakuni</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>624330</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="D26">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CAT-C</t>
+          <t>VIS QTR (NGIS SINGLE RMS)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>607</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2907,65 +2902,70 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FACILITY</t>
+          <t>KINTAI INN EXPANSION-TORII DISTRICT</t>
         </is>
       </c>
       <c r="L26">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="M26" s="2">
-        <v>42776</v>
+        <v>43044</v>
       </c>
       <c r="N26" s="2">
-        <v>32813</v>
+        <v>42461</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P26">
-        <v>30077</v>
+        <v>48782</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T26">
-        <v>30077</v>
+        <v>48782</v>
       </c>
       <c r="U26">
-        <v>12866910</v>
+        <v>46210166</v>
       </c>
       <c r="V26">
-        <v>129032.509803</v>
+        <v>475061.784313</v>
       </c>
       <c r="W26">
-        <v>321672.75</v>
+        <v>1155254.15</v>
       </c>
       <c r="X26">
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>321672.75</v>
+        <v>1155254.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MCIEAST</t>
+          <t>MCIPAC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MCAS New River</t>
+          <t>MCAS Iwakuni</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>43715</t>
+          <t>27560</t>
         </is>
       </c>
       <c r="D27">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
+          <t>VIS QTR (NGIS SINGLE RMS)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>AS705</t>
+          <t>606</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3003,17 +3003,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BOQ</t>
+          <t>KINTAI INN-TORII DISTRICT</t>
         </is>
       </c>
       <c r="L27">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M27" s="2">
-        <v>44140</v>
+        <v>43041</v>
       </c>
       <c r="N27" s="2">
-        <v>24763</v>
+        <v>35394</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -3021,13 +3021,13 @@
         </is>
       </c>
       <c r="P27">
-        <v>74692</v>
+        <v>38055</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -3035,22 +3035,22 @@
         </is>
       </c>
       <c r="T27">
-        <v>74692</v>
+        <v>38055</v>
       </c>
       <c r="U27">
-        <v>31332713</v>
+        <v>36048704</v>
       </c>
       <c r="V27">
-        <v>314025.421568</v>
+        <v>370597.274509</v>
       </c>
       <c r="W27">
-        <v>783317.8250000001</v>
+        <v>901217.6000000001</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
       <c r="Y27">
-        <v>783317.8250000001</v>
+        <v>901217.6000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>27588</t>
         </is>
       </c>
       <c r="D28">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VIS QTR (NGIS SINGLE RMS)</t>
+          <t>VIP QUARTERS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>511</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>KINTAI INN EXPANSION-TORII DISTRICT</t>
+          <t>TDY OFFICIAL LODGING (SHOGUN)-TORII DISTRICT</t>
         </is>
       </c>
       <c r="L28">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M28" s="2">
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="N28" s="2">
-        <v>42461</v>
+        <v>17349</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P28">
-        <v>48782</v>
+        <v>1513</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3136,22 +3136,22 @@
         </is>
       </c>
       <c r="T28">
-        <v>48782</v>
+        <v>1513</v>
       </c>
       <c r="U28">
-        <v>46210166</v>
+        <v>1433233</v>
       </c>
       <c r="V28">
-        <v>475061.784313</v>
+        <v>14734.294117</v>
       </c>
       <c r="W28">
-        <v>1155254.15</v>
+        <v>35830.825</v>
       </c>
       <c r="X28">
         <v>1</v>
       </c>
       <c r="Y28">
-        <v>1155254.15</v>
+        <v>35830.825</v>
       </c>
     </row>
     <row r="29">
@@ -3167,35 +3167,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27560</t>
+          <t>1276281</t>
         </is>
       </c>
       <c r="D29">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VIS QTR (NGIS SINGLE RMS)</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3205,70 +3205,65 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>KINTAI INN-TORII DISTRICT</t>
+          <t>TEMPORARY LODGING FACILITY-TORII DISTRICT</t>
         </is>
       </c>
       <c r="L29">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M29" s="2">
-        <v>43041</v>
+        <v>43076</v>
       </c>
       <c r="N29" s="2">
-        <v>35394</v>
+        <v>42502</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P29">
-        <v>38055</v>
+        <v>74346</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>51</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>38055</v>
+        <v>90773</v>
       </c>
       <c r="U29">
-        <v>36048704</v>
+        <v>77844166</v>
       </c>
       <c r="V29">
-        <v>370597.274509</v>
+        <v>724015.892156</v>
       </c>
       <c r="W29">
-        <v>901217.6000000001</v>
+        <v>1946104.15</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0.8190320910402873</v>
       </c>
       <c r="Y29">
-        <v>901217.6000000001</v>
+        <v>1593921.751356681</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MCIPAC</t>
+          <t>MCIWEST</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MCAS Iwakuni</t>
+          <t>MCAS Yuma</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27588</t>
+          <t>35078</t>
         </is>
       </c>
       <c r="D30">
@@ -3281,7 +3276,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VIP QUARTERS</t>
+          <t>BOQ TRANSIENT W1/W2&amp;01&amp; UP.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3296,7 +3291,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3306,17 +3301,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING (SHOGUN)-TORII DISTRICT</t>
+          <t>BARRACKS BILLETED TRANSIENT VIP/OFFICE</t>
         </is>
       </c>
       <c r="L30">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M30" s="2">
-        <v>43045</v>
+        <v>43847</v>
       </c>
       <c r="N30" s="2">
-        <v>17349</v>
+        <v>25020</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3324,13 +3319,13 @@
         </is>
       </c>
       <c r="P30">
-        <v>1513</v>
+        <v>21040</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3338,66 +3333,66 @@
         </is>
       </c>
       <c r="T30">
-        <v>1513</v>
+        <v>21040</v>
       </c>
       <c r="U30">
-        <v>1433233</v>
+        <v>9350440</v>
       </c>
       <c r="V30">
-        <v>14734.294117</v>
+        <v>93873.647058</v>
       </c>
       <c r="W30">
-        <v>35830.825</v>
+        <v>233761</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>35830.825</v>
+        <v>233761</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MCIPAC</t>
+          <t>MCIWEST</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCAS Iwakuni</t>
+          <t>MCAS Yuma</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1276281</t>
+          <t>35077</t>
         </is>
       </c>
       <c r="D31">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CAT-C</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>9500</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3407,49 +3402,54 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FACILITY-TORII DISTRICT</t>
+          <t>BARRACKS TRANSIENT</t>
         </is>
       </c>
       <c r="L31">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="M31" s="2">
-        <v>43076</v>
+        <v>43846</v>
       </c>
       <c r="N31" s="2">
-        <v>42502</v>
+        <v>26115</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P31">
-        <v>74346</v>
+        <v>33572</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T31">
-        <v>90773</v>
+        <v>33572</v>
       </c>
       <c r="U31">
-        <v>77844166</v>
+        <v>14919818</v>
       </c>
       <c r="V31">
-        <v>724015.892156</v>
+        <v>149787.372549</v>
       </c>
       <c r="W31">
-        <v>1946104.15</v>
+        <v>372995.45</v>
       </c>
       <c r="X31">
-        <v>0.8190320910402873</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>1593921.751356681</v>
+        <v>372995.45</v>
       </c>
     </row>
     <row r="32">
@@ -3465,35 +3465,35 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>35078</t>
+          <t>33863</t>
         </is>
       </c>
       <c r="D32">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BOQ TRANSIENT W1/W2&amp;01&amp; UP.</t>
+          <t>TEMP LODGING DOS RIOS CAT "C"</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3503,17 +3503,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BARRACKS BILLETED TRANSIENT VIP/OFFICE</t>
+          <t>INNS OF THE CORPS YUMA</t>
         </is>
       </c>
       <c r="L32">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M32" s="2">
-        <v>43847</v>
+        <v>43843</v>
       </c>
       <c r="N32" s="2">
-        <v>25020</v>
+        <v>35612</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3521,36 +3521,31 @@
         </is>
       </c>
       <c r="P32">
-        <v>21040</v>
+        <v>2959</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>31</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>21040</v>
+        <v>2959</v>
       </c>
       <c r="U32">
-        <v>9350440</v>
+        <v>1315017</v>
       </c>
       <c r="V32">
-        <v>93873.647058</v>
+        <v>13202.098039</v>
       </c>
       <c r="W32">
-        <v>233761</v>
+        <v>32875.425</v>
       </c>
       <c r="X32">
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>233761</v>
+        <v>32875.425</v>
       </c>
     </row>
     <row r="33">
@@ -3566,35 +3561,35 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>35077</t>
+          <t>33867</t>
         </is>
       </c>
       <c r="D33">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>TEMP LODGING DOS RIOS CAT "C"</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3604,54 +3599,49 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BARRACKS TRANSIENT</t>
+          <t>INNS OF THE CORPS YUMA</t>
         </is>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="M33" s="2">
-        <v>43846</v>
+        <v>43843</v>
       </c>
       <c r="N33" s="2">
-        <v>26115</v>
+        <v>35612</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P33">
-        <v>33572</v>
+        <v>3688</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>71</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>33572</v>
+        <v>3688</v>
       </c>
       <c r="U33">
-        <v>14919818</v>
+        <v>1638993</v>
       </c>
       <c r="V33">
-        <v>149787.372549</v>
+        <v>16454.656862</v>
       </c>
       <c r="W33">
-        <v>372995.45</v>
+        <v>40974.825</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
       <c r="Y33">
-        <v>372995.45</v>
+        <v>40974.825</v>
       </c>
     </row>
     <row r="34">
@@ -3667,7 +3657,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33863</t>
+          <t>33864</t>
         </is>
       </c>
       <c r="D34">
@@ -3695,7 +3685,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3709,7 +3699,7 @@
         </is>
       </c>
       <c r="L34">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M34" s="2">
         <v>43843</v>
@@ -3723,7 +3713,7 @@
         </is>
       </c>
       <c r="P34">
-        <v>2959</v>
+        <v>3688</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3732,22 +3722,22 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>2959</v>
+        <v>3688</v>
       </c>
       <c r="U34">
-        <v>1315017</v>
+        <v>1638993</v>
       </c>
       <c r="V34">
-        <v>13202.098039</v>
+        <v>16454.656862</v>
       </c>
       <c r="W34">
-        <v>32875.425</v>
+        <v>40974.825</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>32875.425</v>
+        <v>40974.825</v>
       </c>
     </row>
     <row r="35">
@@ -3763,7 +3753,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>33867</t>
+          <t>33862</t>
         </is>
       </c>
       <c r="D35">
@@ -3791,7 +3781,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3805,7 +3795,7 @@
         </is>
       </c>
       <c r="L35">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M35" s="2">
         <v>43843</v>
@@ -3819,7 +3809,7 @@
         </is>
       </c>
       <c r="P35">
-        <v>3688</v>
+        <v>3293</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3828,22 +3818,22 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3688</v>
+        <v>3293</v>
       </c>
       <c r="U35">
-        <v>1638993</v>
+        <v>1463451</v>
       </c>
       <c r="V35">
-        <v>16454.656862</v>
+        <v>14692.294117</v>
       </c>
       <c r="W35">
-        <v>40974.825</v>
+        <v>36586.275</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>40974.825</v>
+        <v>36586.275</v>
       </c>
     </row>
     <row r="36">
@@ -3859,7 +3849,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>33864</t>
+          <t>985794</t>
         </is>
       </c>
       <c r="D36">
@@ -3887,7 +3877,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3901,21 +3891,21 @@
         </is>
       </c>
       <c r="L36">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M36" s="2">
         <v>43843</v>
       </c>
       <c r="N36" s="2">
-        <v>35612</v>
+        <v>39759</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P36">
-        <v>3688</v>
+        <v>3167</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3924,22 +3914,22 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3688</v>
+        <v>3167</v>
       </c>
       <c r="U36">
-        <v>1638993</v>
+        <v>1407455</v>
       </c>
       <c r="V36">
-        <v>16454.656862</v>
+        <v>14130.12745</v>
       </c>
       <c r="W36">
-        <v>40974.825</v>
+        <v>35186.375</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>40974.825</v>
+        <v>35186.375</v>
       </c>
     </row>
     <row r="37">
@@ -3955,7 +3945,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33862</t>
+          <t>985798</t>
         </is>
       </c>
       <c r="D37">
@@ -3983,7 +3973,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3997,21 +3987,21 @@
         </is>
       </c>
       <c r="L37">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M37" s="2">
         <v>43843</v>
       </c>
       <c r="N37" s="2">
-        <v>35612</v>
+        <v>39759</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P37">
-        <v>3293</v>
+        <v>3167</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -4020,22 +4010,22 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3293</v>
+        <v>3167</v>
       </c>
       <c r="U37">
-        <v>1463451</v>
+        <v>1407455</v>
       </c>
       <c r="V37">
-        <v>14692.294117</v>
+        <v>14130.12745</v>
       </c>
       <c r="W37">
-        <v>36586.275</v>
+        <v>35186.375</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>36586.275</v>
+        <v>35186.375</v>
       </c>
     </row>
     <row r="38">
@@ -4051,7 +4041,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>985794</t>
+          <t>33868</t>
         </is>
       </c>
       <c r="D38">
@@ -4079,7 +4069,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4093,21 +4083,21 @@
         </is>
       </c>
       <c r="L38">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M38" s="2">
         <v>43843</v>
       </c>
       <c r="N38" s="2">
-        <v>39759</v>
+        <v>35612</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P38">
-        <v>3167</v>
+        <v>3688</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4116,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3167</v>
+        <v>3688</v>
       </c>
       <c r="U38">
-        <v>1407455</v>
+        <v>1638993</v>
       </c>
       <c r="V38">
-        <v>14130.12745</v>
+        <v>16454.656862</v>
       </c>
       <c r="W38">
-        <v>35186.375</v>
+        <v>40974.825</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>35186.375</v>
+        <v>40974.825</v>
       </c>
     </row>
     <row r="39">
@@ -4147,7 +4137,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>985798</t>
+          <t>33866</t>
         </is>
       </c>
       <c r="D39">
@@ -4160,7 +4150,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TEMP LODGING DOS RIOS CAT "C"</t>
+          <t>TEMP LODGING CAT "C"</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4175,7 +4165,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4189,21 +4179,21 @@
         </is>
       </c>
       <c r="L39">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M39" s="2">
         <v>43843</v>
       </c>
       <c r="N39" s="2">
-        <v>39759</v>
+        <v>35612</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P39">
-        <v>3167</v>
+        <v>3688</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4212,66 +4202,66 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3167</v>
+        <v>3688</v>
       </c>
       <c r="U39">
-        <v>1407455</v>
+        <v>1638993</v>
       </c>
       <c r="V39">
-        <v>14130.12745</v>
+        <v>16454.656862</v>
       </c>
       <c r="W39">
-        <v>35186.375</v>
+        <v>40974.825</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>35186.375</v>
+        <v>40974.825</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MCIWEST</t>
+          <t>SLTI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCAS Yuma</t>
+          <t>MWTC Bridgeport</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>33868</t>
+          <t>33314</t>
         </is>
       </c>
       <c r="D40">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TEMP LODGING DOS RIOS CAT "C"</t>
+          <t>CAT-C G-4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>5016</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4281,17 +4271,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>INNS OF THE CORPS YUMA</t>
+          <t>TRANSIENT QUARTERS</t>
         </is>
       </c>
       <c r="L40">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M40" s="2">
-        <v>43843</v>
+        <v>43777</v>
       </c>
       <c r="N40" s="2">
-        <v>35612</v>
+        <v>30133</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4299,75 +4289,80 @@
         </is>
       </c>
       <c r="P40">
-        <v>3688</v>
+        <v>11941</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T40">
-        <v>3688</v>
+        <v>11941</v>
       </c>
       <c r="U40">
-        <v>1638993</v>
+        <v>6001069</v>
       </c>
       <c r="V40">
-        <v>16454.656862</v>
+        <v>70893.45097999999</v>
       </c>
       <c r="W40">
-        <v>40974.825</v>
+        <v>150026.725</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40">
-        <v>40974.825</v>
+        <v>150026.725</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MCIWEST</t>
+          <t>MCIEAST</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCAS Yuma</t>
+          <t>MCB Lejeune</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>33866</t>
+          <t>38886</t>
         </is>
       </c>
       <c r="D41">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TEMP LODGING CAT "C"</t>
+          <t>LODGING</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4377,17 +4372,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>INNS OF THE CORPS YUMA</t>
+          <t>ALL POINTS INN</t>
         </is>
       </c>
       <c r="L41">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M41" s="2">
-        <v>43843</v>
+        <v>44141</v>
       </c>
       <c r="N41" s="2">
-        <v>35612</v>
+        <v>15657</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4395,47 +4390,52 @@
         </is>
       </c>
       <c r="P41">
-        <v>3688</v>
+        <v>14024</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T41">
-        <v>3688</v>
+        <v>14024</v>
       </c>
       <c r="U41">
-        <v>1638993</v>
+        <v>5882959</v>
       </c>
       <c r="V41">
-        <v>16454.656862</v>
+        <v>58960.696078</v>
       </c>
       <c r="W41">
-        <v>40974.825</v>
+        <v>147073.975</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>40974.825</v>
+        <v>147073.975</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SLTI</t>
+          <t>MCIEAST</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MWTC Bridgeport</t>
+          <t>MCB Lejeune</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>33314</t>
+          <t>38888</t>
         </is>
       </c>
       <c r="D42">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CAT-C G-4</t>
+          <t>LODGING</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5016</t>
+          <t>2604</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4473,17 +4473,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>TRANSIENT QUARTERS</t>
+          <t>ALL POINTS INN</t>
         </is>
       </c>
       <c r="L42">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M42" s="2">
-        <v>43777</v>
+        <v>44141</v>
       </c>
       <c r="N42" s="2">
-        <v>30133</v>
+        <v>15669</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4491,13 +4491,13 @@
         </is>
       </c>
       <c r="P42">
-        <v>11941</v>
+        <v>14024</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4505,22 +4505,22 @@
         </is>
       </c>
       <c r="T42">
-        <v>11941</v>
+        <v>14024</v>
       </c>
       <c r="U42">
-        <v>6001069</v>
+        <v>5882959</v>
       </c>
       <c r="V42">
-        <v>70893.45097999999</v>
+        <v>58960.696078</v>
       </c>
       <c r="W42">
-        <v>150026.725</v>
+        <v>147073.975</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>150026.725</v>
+        <v>147073.975</v>
       </c>
     </row>
     <row r="43">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>38886</t>
+          <t>38887</t>
         </is>
       </c>
       <c r="D43">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4574,31 +4574,31 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ALL POINTS INN</t>
+          <t>BOQ</t>
         </is>
       </c>
       <c r="L43">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M43" s="2">
         <v>44141</v>
       </c>
       <c r="N43" s="2">
-        <v>15657</v>
+        <v>15651</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P43">
-        <v>14024</v>
+        <v>14334</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4606,22 +4606,22 @@
         </is>
       </c>
       <c r="T43">
-        <v>14024</v>
+        <v>14334</v>
       </c>
       <c r="U43">
-        <v>5882959</v>
+        <v>6013001</v>
       </c>
       <c r="V43">
-        <v>58960.696078</v>
+        <v>60264.019607</v>
       </c>
       <c r="W43">
-        <v>147073.975</v>
+        <v>150325.025</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>147073.975</v>
+        <v>150325.025</v>
       </c>
     </row>
     <row r="44">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>38888</t>
+          <t>38901</t>
         </is>
       </c>
       <c r="D44">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>2617</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4675,17 +4675,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ALL POINTS INN</t>
+          <t>BOQ</t>
         </is>
       </c>
       <c r="L44">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M44" s="2">
         <v>44141</v>
       </c>
       <c r="N44" s="2">
-        <v>15669</v>
+        <v>22706</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="P44">
-        <v>14024</v>
+        <v>24383</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="T44">
-        <v>14024</v>
+        <v>24383</v>
       </c>
       <c r="U44">
-        <v>5882959</v>
+        <v>10228479</v>
       </c>
       <c r="V44">
-        <v>58960.696078</v>
+        <v>102512.745098</v>
       </c>
       <c r="W44">
-        <v>147073.975</v>
+        <v>255711.975</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>147073.975</v>
+        <v>255711.975</v>
       </c>
     </row>
     <row r="45">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>38887</t>
+          <t>38897</t>
         </is>
       </c>
       <c r="D45">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4776,17 +4776,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BOQ</t>
+          <t>BOQ - TRANSIENT</t>
         </is>
       </c>
       <c r="L45">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M45" s="2">
         <v>44141</v>
       </c>
       <c r="N45" s="2">
-        <v>15651</v>
+        <v>15621</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4794,13 +4794,13 @@
         </is>
       </c>
       <c r="P45">
-        <v>14334</v>
+        <v>14263</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4808,22 +4808,22 @@
         </is>
       </c>
       <c r="T45">
-        <v>14334</v>
+        <v>14263</v>
       </c>
       <c r="U45">
-        <v>6013001</v>
+        <v>5983218</v>
       </c>
       <c r="V45">
-        <v>60264.019607</v>
+        <v>59965.519607</v>
       </c>
       <c r="W45">
-        <v>150325.025</v>
+        <v>149580.45</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>150325.025</v>
+        <v>149580.45</v>
       </c>
     </row>
     <row r="46">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>38901</t>
+          <t>38687</t>
         </is>
       </c>
       <c r="D46">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2617</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4877,31 +4877,31 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BOQ</t>
+          <t>BOQ 0-3 ABOVE  PULLER HOUSE</t>
         </is>
       </c>
       <c r="L46">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="M46" s="2">
         <v>44141</v>
       </c>
       <c r="N46" s="2">
-        <v>22706</v>
+        <v>15678</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P46">
-        <v>24383</v>
+        <v>3192</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4909,22 +4909,22 @@
         </is>
       </c>
       <c r="T46">
-        <v>24383</v>
+        <v>3192</v>
       </c>
       <c r="U46">
-        <v>10228479</v>
+        <v>1339019</v>
       </c>
       <c r="V46">
-        <v>102512.745098</v>
+        <v>13420.029411</v>
       </c>
       <c r="W46">
-        <v>255711.975</v>
+        <v>33475.475</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>255711.975</v>
+        <v>33475.475</v>
       </c>
     </row>
     <row r="47">
@@ -4940,35 +4940,35 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>38897</t>
+          <t>1173406</t>
         </is>
       </c>
       <c r="D47">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>MWR RENTAL ACCOMMODATIONS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>891</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4978,54 +4978,54 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BOQ - TRANSIENT</t>
+          <t>HOSTESS HOUSE</t>
         </is>
       </c>
       <c r="L47">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="M47" s="2">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="N47" s="2">
-        <v>15621</v>
+        <v>41376</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P47">
-        <v>14263</v>
+        <v>31580</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="T47">
-        <v>14263</v>
+        <v>31580</v>
       </c>
       <c r="U47">
-        <v>5983218</v>
+        <v>4420742</v>
       </c>
       <c r="V47">
-        <v>59965.519607</v>
+        <v>142862.72549</v>
       </c>
       <c r="W47">
-        <v>149580.45</v>
+        <v>110518.55</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>149580.45</v>
+        <v>110518.55</v>
       </c>
     </row>
     <row r="48">
@@ -5041,35 +5041,35 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>38687</t>
+          <t>39447</t>
         </is>
       </c>
       <c r="D48">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>896</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5079,17 +5079,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BOQ 0-3 ABOVE  PULLER HOUSE</t>
+          <t>INNS OF THE CORPS</t>
         </is>
       </c>
       <c r="L48">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M48" s="2">
         <v>44141</v>
       </c>
       <c r="N48" s="2">
-        <v>15678</v>
+        <v>26877</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -5097,36 +5097,31 @@
         </is>
       </c>
       <c r="P48">
-        <v>3192</v>
+        <v>49000</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>3</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>3192</v>
+        <v>49000</v>
       </c>
       <c r="U48">
-        <v>1339019</v>
+        <v>20555119</v>
       </c>
       <c r="V48">
-        <v>13420.029411</v>
+        <v>206009.284313</v>
       </c>
       <c r="W48">
-        <v>33475.475</v>
+        <v>513877.975</v>
       </c>
       <c r="X48">
         <v>1</v>
       </c>
       <c r="Y48">
-        <v>33475.475</v>
+        <v>513877.975</v>
       </c>
     </row>
     <row r="49">
@@ -5137,40 +5132,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCB Lejeune</t>
+          <t>MCLB Albany</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>39447</t>
+          <t>42721</t>
         </is>
       </c>
       <c r="D49">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CAT-C</t>
+          <t>LIVE OAKS LODGE VQ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>10201</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5180,49 +5175,54 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>INNS OF THE CORPS</t>
+          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
         </is>
       </c>
       <c r="L49">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M49" s="2">
-        <v>44141</v>
+        <v>42439</v>
       </c>
       <c r="N49" s="2">
-        <v>26877</v>
+        <v>23559</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P49">
-        <v>49000</v>
+        <v>7100</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T49">
-        <v>49000</v>
+        <v>7100</v>
       </c>
       <c r="U49">
-        <v>20555119</v>
+        <v>2654015</v>
       </c>
       <c r="V49">
-        <v>206009.284313</v>
+        <v>26395.274509</v>
       </c>
       <c r="W49">
-        <v>513877.975</v>
+        <v>66350.375</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>513877.975</v>
+        <v>66350.375</v>
       </c>
     </row>
     <row r="50">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>42721</t>
+          <t>42722</t>
         </is>
       </c>
       <c r="D50">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10201</t>
+          <t>10202</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="L50">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M50" s="2">
         <v>42439</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>42722</t>
+          <t>42728</t>
         </is>
       </c>
       <c r="D51">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LIVE OAKS LODGE VQ</t>
+          <t>DISTINGUISHED GUEST QUARTERS</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10202</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5381,27 +5381,27 @@
         </is>
       </c>
       <c r="L51">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M51" s="2">
-        <v>42439</v>
+        <v>42429</v>
       </c>
       <c r="N51" s="2">
         <v>23559</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P51">
-        <v>7100</v>
+        <v>1727</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5409,38 +5409,38 @@
         </is>
       </c>
       <c r="T51">
-        <v>7100</v>
+        <v>1727</v>
       </c>
       <c r="U51">
-        <v>2654015</v>
+        <v>645561</v>
       </c>
       <c r="V51">
-        <v>26395.274509</v>
+        <v>6445.794117</v>
       </c>
       <c r="W51">
-        <v>66350.375</v>
+        <v>16139.025</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>66350.375</v>
+        <v>16139.025</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MCIEAST</t>
+          <t>SLTI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MCLB Albany</t>
+          <t>MCAGCC 29 Palms</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>42728</t>
+          <t>40527</t>
         </is>
       </c>
       <c r="D52">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DISTINGUISHED GUEST QUARTERS</t>
+          <t>CAT-C G-4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>10300</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5478,25 +5478,25 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BOQ TRANSIENT W3-W5&amp;03&amp;UP</t>
+          <t>BACHELOR HOUSING OFFICE &amp; SUITES</t>
         </is>
       </c>
       <c r="L52">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M52" s="2">
-        <v>42429</v>
+        <v>43759</v>
       </c>
       <c r="N52" s="2">
-        <v>23559</v>
+        <v>19925</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P52">
-        <v>1727</v>
+        <v>6540</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5510,22 +5510,22 @@
         </is>
       </c>
       <c r="T52">
-        <v>1727</v>
+        <v>6540</v>
       </c>
       <c r="U52">
-        <v>645561</v>
+        <v>3259579</v>
       </c>
       <c r="V52">
-        <v>6445.794117</v>
+        <v>35071.343137</v>
       </c>
       <c r="W52">
-        <v>16139.025</v>
+        <v>81489.47500000001</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>16139.025</v>
+        <v>81489.47500000001</v>
       </c>
     </row>
     <row r="53">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>45842</t>
+          <t>36814</t>
         </is>
       </c>
       <c r="D53">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TRANSIENT QTRS MISSION</t>
+          <t>G-4 BBD TRANSIENT ALL RANKS</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -5579,31 +5579,31 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3715 ASHURST ST. RILEY HOUSE</t>
+          <t>BEQ E1 - E5</t>
         </is>
       </c>
       <c r="L53">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M53" s="2">
-        <v>43788</v>
+        <v>43760</v>
       </c>
       <c r="N53" s="2">
-        <v>36708</v>
+        <v>32302</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P53">
-        <v>2357</v>
+        <v>67965</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="T53">
-        <v>2357</v>
+        <v>67965</v>
       </c>
       <c r="U53">
-        <v>1174744</v>
+        <v>33874205</v>
       </c>
       <c r="V53">
-        <v>12575.274509</v>
+        <v>367031.794117</v>
       </c>
       <c r="W53">
-        <v>29368.6</v>
+        <v>846855.125</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>29368.6</v>
+        <v>846855.125</v>
       </c>
     </row>
     <row r="54">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>40527</t>
+          <t>36823</t>
         </is>
       </c>
       <c r="D54">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CAT-C G-4</t>
+          <t>G-4 BBD TRANSIENT ALL RANKS</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -5680,17 +5680,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BACHELOR HOUSING OFFICE &amp; SUITES</t>
+          <t>BEQ E1 - E5</t>
         </is>
       </c>
       <c r="L54">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M54" s="2">
-        <v>43759</v>
+        <v>43761</v>
       </c>
       <c r="N54" s="2">
-        <v>19925</v>
+        <v>31776</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5698,13 +5698,13 @@
         </is>
       </c>
       <c r="P54">
-        <v>6540</v>
+        <v>67965</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5712,22 +5712,22 @@
         </is>
       </c>
       <c r="T54">
-        <v>6540</v>
+        <v>67965</v>
       </c>
       <c r="U54">
-        <v>3259579</v>
+        <v>33874205</v>
       </c>
       <c r="V54">
-        <v>35071.343137</v>
+        <v>367031.794117</v>
       </c>
       <c r="W54">
-        <v>81489.47500000001</v>
+        <v>846855.125</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Y54">
-        <v>81489.47500000001</v>
+        <v>846855.125</v>
       </c>
     </row>
     <row r="55">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>36814</t>
+          <t>40533</t>
         </is>
       </c>
       <c r="D55">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>G-4 BBD TRANSIENT ALL RANKS</t>
+          <t>CAT-C G-4 BBD</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -5781,17 +5781,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BEQ E1 - E5</t>
+          <t>BEQ TRANSIENT ALL RANKS</t>
         </is>
       </c>
       <c r="L55">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M55" s="2">
-        <v>43760</v>
+        <v>41603</v>
       </c>
       <c r="N55" s="2">
-        <v>32302</v>
+        <v>19925</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5799,13 +5799,13 @@
         </is>
       </c>
       <c r="P55">
-        <v>67965</v>
+        <v>6540</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5813,22 +5813,22 @@
         </is>
       </c>
       <c r="T55">
-        <v>67965</v>
+        <v>6540</v>
       </c>
       <c r="U55">
-        <v>33874205</v>
+        <v>3259579</v>
       </c>
       <c r="V55">
-        <v>367031.794117</v>
+        <v>35071.343137</v>
       </c>
       <c r="W55">
-        <v>846855.125</v>
+        <v>81489.47500000001</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>846855.125</v>
+        <v>81489.47500000001</v>
       </c>
     </row>
     <row r="56">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>36823</t>
+          <t>40525</t>
         </is>
       </c>
       <c r="D56">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>G-4 BBD TRANSIENT ALL RANKS</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5882,17 +5882,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BEQ E1 - E5</t>
+          <t>BEQ TRANSIENT ALL RANKS</t>
         </is>
       </c>
       <c r="L56">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M56" s="2">
-        <v>43761</v>
+        <v>41603</v>
       </c>
       <c r="N56" s="2">
-        <v>31776</v>
+        <v>19541</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5900,13 +5900,13 @@
         </is>
       </c>
       <c r="P56">
-        <v>67965</v>
+        <v>6357</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5914,22 +5914,22 @@
         </is>
       </c>
       <c r="T56">
-        <v>67965</v>
+        <v>6357</v>
       </c>
       <c r="U56">
-        <v>33874205</v>
+        <v>3168371</v>
       </c>
       <c r="V56">
-        <v>367031.794117</v>
+        <v>34272.313725</v>
       </c>
       <c r="W56">
-        <v>846855.125</v>
+        <v>79209.27500000001</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>846855.125</v>
+        <v>79209.27500000001</v>
       </c>
     </row>
     <row r="57">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>40533</t>
+          <t>40523</t>
         </is>
       </c>
       <c r="D57">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CAT-C G-4 BBD</t>
+          <t>CAT-A</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="L57">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M57" s="2">
         <v>41603</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="R57">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>40525</t>
+          <t>40531</t>
         </is>
       </c>
       <c r="D58">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CAT-C</t>
+          <t>CAT-C G-4 BBD</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="L58">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M58" s="2">
         <v>41603</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>40523</t>
+          <t>167081</t>
         </is>
       </c>
       <c r="D59">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CAT-A</t>
+          <t>TRANSIENT QTRS MISSION</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -6185,31 +6185,31 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BEQ TRANSIENT ALL RANKS</t>
+          <t>ROAD RUNNER INN</t>
         </is>
       </c>
       <c r="L59">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M59" s="2">
-        <v>41603</v>
+        <v>43755</v>
       </c>
       <c r="N59" s="2">
-        <v>19925</v>
+        <v>39321</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P59">
-        <v>6540</v>
+        <v>22021</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -6217,22 +6217,22 @@
         </is>
       </c>
       <c r="T59">
-        <v>6540</v>
+        <v>22021</v>
       </c>
       <c r="U59">
-        <v>3259579</v>
+        <v>10975412</v>
       </c>
       <c r="V59">
-        <v>35071.343137</v>
+        <v>114968.578431</v>
       </c>
       <c r="W59">
-        <v>81489.47500000001</v>
+        <v>274385.3</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>81489.47500000001</v>
+        <v>274385.3</v>
       </c>
     </row>
     <row r="60">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>40531</t>
+          <t>42695</t>
         </is>
       </c>
       <c r="D60">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CAT-C G-4 BBD</t>
+          <t>CAT-C G-4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6286,17 +6286,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BEQ TRANSIENT ALL RANKS</t>
+          <t>SNCO BEQ</t>
         </is>
       </c>
       <c r="L60">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M60" s="2">
-        <v>41603</v>
+        <v>41604</v>
       </c>
       <c r="N60" s="2">
-        <v>19541</v>
+        <v>28307</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -6304,13 +6304,13 @@
         </is>
       </c>
       <c r="P60">
-        <v>6357</v>
+        <v>6590</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -6318,22 +6318,22 @@
         </is>
       </c>
       <c r="T60">
-        <v>6357</v>
+        <v>6590</v>
       </c>
       <c r="U60">
-        <v>3168371</v>
+        <v>3284499</v>
       </c>
       <c r="V60">
-        <v>34272.313725</v>
+        <v>34234.774509</v>
       </c>
       <c r="W60">
-        <v>79209.27500000001</v>
+        <v>82112.47500000001</v>
       </c>
       <c r="X60">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>79209.27500000001</v>
+        <v>82112.47500000001</v>
       </c>
     </row>
     <row r="61">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>167081</t>
+          <t>42696</t>
         </is>
       </c>
       <c r="D61">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TRANSIENT QTRS MISSION</t>
+          <t>CAT-C G-4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -6387,31 +6387,31 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ROAD RUNNER INN</t>
+          <t>SNCO BEQ</t>
         </is>
       </c>
       <c r="L61">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M61" s="2">
-        <v>43755</v>
+        <v>41604</v>
       </c>
       <c r="N61" s="2">
-        <v>39321</v>
+        <v>28307</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P61">
-        <v>22021</v>
+        <v>13408</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6419,22 +6419,22 @@
         </is>
       </c>
       <c r="T61">
-        <v>22021</v>
+        <v>13408</v>
       </c>
       <c r="U61">
-        <v>10975412</v>
+        <v>6682636</v>
       </c>
       <c r="V61">
-        <v>114968.578431</v>
+        <v>70099.784313</v>
       </c>
       <c r="W61">
-        <v>274385.3</v>
+        <v>167065.9</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>274385.3</v>
+        <v>167065.9</v>
       </c>
     </row>
     <row r="62">
@@ -6450,35 +6450,35 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>42695</t>
+          <t>1402894</t>
         </is>
       </c>
       <c r="D62">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CAT-C G-4</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -6488,54 +6488,49 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>SNCO BEQ</t>
+          <t>TEMPORARY LODGING FACILITY</t>
         </is>
       </c>
       <c r="L62">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="M62" s="2">
-        <v>41604</v>
+        <v>44001</v>
       </c>
       <c r="N62" s="2">
-        <v>28307</v>
+        <v>44001</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P62">
-        <v>6590</v>
+        <v>50751</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>16</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>6590</v>
+        <v>50751</v>
       </c>
       <c r="U62">
-        <v>3284499</v>
+        <v>25294633</v>
       </c>
       <c r="V62">
-        <v>34234.774509</v>
+        <v>272156.843137</v>
       </c>
       <c r="W62">
-        <v>82112.47500000001</v>
+        <v>632365.8250000001</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>82112.47500000001</v>
+        <v>632365.8250000001</v>
       </c>
     </row>
     <row r="63">
@@ -6551,35 +6546,35 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>42696</t>
+          <t>47876</t>
         </is>
       </c>
       <c r="D63">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CAT-C G-4</t>
+          <t>CAT-C</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>690</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -6589,17 +6584,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>SNCO BEQ</t>
+          <t>TEMPORARY LODGING FACILITY</t>
         </is>
       </c>
       <c r="L63">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M63" s="2">
-        <v>41604</v>
+        <v>41624</v>
       </c>
       <c r="N63" s="2">
-        <v>28307</v>
+        <v>31229</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6607,52 +6602,47 @@
         </is>
       </c>
       <c r="P63">
-        <v>13408</v>
+        <v>12536</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>28</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>13408</v>
+        <v>12536</v>
       </c>
       <c r="U63">
-        <v>6682636</v>
+        <v>6248025</v>
       </c>
       <c r="V63">
-        <v>70099.784313</v>
+        <v>67225.44117599999</v>
       </c>
       <c r="W63">
-        <v>167065.9</v>
+        <v>156200.625</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>167065.9</v>
+        <v>156200.625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SLTI</t>
+          <t>MCIPAC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MCAGCC 29 Palms</t>
+          <t>MCB Butler</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1402894</t>
+          <t>52828</t>
         </is>
       </c>
       <c r="D64">
@@ -6665,7 +6655,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TEMP MARINE LDG / CAT C</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6680,7 +6670,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>4440</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -6690,25 +6680,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FACILITY</t>
+          <t>COURTNEY LODGE</t>
         </is>
       </c>
       <c r="L64">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M64" s="2">
-        <v>44001</v>
+        <v>43240</v>
       </c>
       <c r="N64" s="2">
-        <v>44001</v>
+        <v>30284</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P64">
-        <v>50751</v>
+        <v>13958</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -6717,66 +6707,66 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>50751</v>
+        <v>13958</v>
       </c>
       <c r="U64">
-        <v>25294633</v>
+        <v>12697896</v>
       </c>
       <c r="V64">
-        <v>272156.843137</v>
+        <v>129761.764705</v>
       </c>
       <c r="W64">
-        <v>632365.8250000001</v>
+        <v>317447.4</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>632365.8250000001</v>
+        <v>317447.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SLTI</t>
+          <t>MCIPAC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCAGCC 29 Palms</t>
+          <t>MCB Butler</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>47876</t>
+          <t>52004</t>
         </is>
       </c>
       <c r="D65">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CAT-C</t>
+          <t>TDY OFFICIAL LODGING / CAT C</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6786,17 +6776,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>TEMPORARY LODGING FACILITY</t>
+          <t>CUL DE SAC INN</t>
         </is>
       </c>
       <c r="L65">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M65" s="2">
-        <v>41624</v>
+        <v>43186</v>
       </c>
       <c r="N65" s="2">
-        <v>31229</v>
+        <v>25385</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6804,31 +6794,36 @@
         </is>
       </c>
       <c r="P65">
-        <v>12536</v>
+        <v>49577</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T65">
-        <v>12536</v>
+        <v>49577</v>
       </c>
       <c r="U65">
-        <v>6248025</v>
+        <v>44273727</v>
       </c>
       <c r="V65">
-        <v>67225.44117599999</v>
+        <v>455154.303921</v>
       </c>
       <c r="W65">
-        <v>156200.625</v>
+        <v>1106843.175</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>156200.625</v>
+        <v>1106843.175</v>
       </c>
     </row>
     <row r="66">
@@ -6844,35 +6839,35 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>52828</t>
+          <t>46193</t>
         </is>
       </c>
       <c r="D66">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TEMP MARINE LDG / CAT C</t>
+          <t>TDY OFFICIAL LODGING / CAT C</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4440</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -6882,49 +6877,54 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>COURTNEY LODGE</t>
+          <t>DAY HOUSE</t>
         </is>
       </c>
       <c r="L66">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M66" s="2">
-        <v>43240</v>
+        <v>43124</v>
       </c>
       <c r="N66" s="2">
-        <v>30284</v>
+        <v>20637</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P66">
-        <v>13958</v>
+        <v>1374</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T66">
-        <v>13958</v>
+        <v>1374</v>
       </c>
       <c r="U66">
-        <v>12697896</v>
+        <v>1249958</v>
       </c>
       <c r="V66">
-        <v>129761.764705</v>
+        <v>12773.509803</v>
       </c>
       <c r="W66">
-        <v>317447.4</v>
+        <v>31248.95</v>
       </c>
       <c r="X66">
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>317447.4</v>
+        <v>31248.95</v>
       </c>
     </row>
     <row r="67">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>52004</t>
+          <t>51233</t>
         </is>
       </c>
       <c r="D67">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING / CAT C</t>
+          <t>TDY OFFICAL LODGING / CAT C</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>4403</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6978,31 +6978,31 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>CUL DE SAC INN</t>
+          <t>EAGLES NEST</t>
         </is>
       </c>
       <c r="L67">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M67" s="2">
-        <v>43186</v>
+        <v>43221</v>
       </c>
       <c r="N67" s="2">
-        <v>25385</v>
+        <v>25407</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P67">
-        <v>49577</v>
+        <v>1782</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -7010,22 +7010,22 @@
         </is>
       </c>
       <c r="T67">
-        <v>49577</v>
+        <v>5606</v>
       </c>
       <c r="U67">
-        <v>44273727</v>
+        <v>3654505</v>
       </c>
       <c r="V67">
-        <v>455154.303921</v>
+        <v>16566.519607</v>
       </c>
       <c r="W67">
-        <v>1106843.175</v>
+        <v>91362.625</v>
       </c>
       <c r="X67">
-        <v>1</v>
+        <v>0.3178737067427756</v>
       </c>
       <c r="Y67">
-        <v>1106843.175</v>
+        <v>29041.77626650018</v>
       </c>
     </row>
     <row r="68">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>46193</t>
+          <t>51883</t>
         </is>
       </c>
       <c r="D68">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7079,25 +7079,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>DAY HOUSE</t>
+          <t>GEIGER HOUSE</t>
         </is>
       </c>
       <c r="L68">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M68" s="2">
         <v>43124</v>
       </c>
       <c r="N68" s="2">
-        <v>20637</v>
+        <v>38534</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P68">
-        <v>1374</v>
+        <v>2104</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -7111,22 +7111,22 @@
         </is>
       </c>
       <c r="T68">
-        <v>1374</v>
+        <v>2104</v>
       </c>
       <c r="U68">
-        <v>1249958</v>
+        <v>1914054</v>
       </c>
       <c r="V68">
-        <v>12773.509803</v>
+        <v>19560.019607</v>
       </c>
       <c r="W68">
-        <v>31248.95</v>
+        <v>47851.35000000001</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>31248.95</v>
+        <v>47851.35000000001</v>
       </c>
     </row>
     <row r="69">
@@ -7142,35 +7142,35 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>51233</t>
+          <t>1418193</t>
         </is>
       </c>
       <c r="D69">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TDY OFFICAL LODGING / CAT C</t>
+          <t>TLF HANSEN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>2413</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -7180,54 +7180,49 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>EAGLES NEST</t>
+          <t>HANSEN TLF</t>
         </is>
       </c>
       <c r="L69">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="M69" s="2">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="N69" s="2">
-        <v>25407</v>
+        <v>43586</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P69">
-        <v>1782</v>
+        <v>29127</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>2</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>5606</v>
+        <v>29127</v>
       </c>
       <c r="U69">
-        <v>3654505</v>
+        <v>26011272</v>
       </c>
       <c r="V69">
-        <v>16566.519607</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>91362.625</v>
+        <v>650281.8000000001</v>
       </c>
       <c r="X69">
-        <v>0.3178737067427756</v>
+        <v>1</v>
       </c>
       <c r="Y69">
-        <v>29041.77626650018</v>
+        <v>650281.8000000001</v>
       </c>
     </row>
     <row r="70">
@@ -7243,7 +7238,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>51883</t>
+          <t>53326</t>
         </is>
       </c>
       <c r="D70">
@@ -7271,7 +7266,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -7281,31 +7276,31 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GEIGER HOUSE</t>
+          <t>MOUNTAIN VIEW INN</t>
         </is>
       </c>
       <c r="L70">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M70" s="2">
-        <v>43124</v>
+        <v>41072</v>
       </c>
       <c r="N70" s="2">
-        <v>38534</v>
+        <v>31902</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P70">
-        <v>2104</v>
+        <v>17318</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -7313,22 +7308,22 @@
         </is>
       </c>
       <c r="T70">
-        <v>2104</v>
+        <v>20054</v>
       </c>
       <c r="U70">
-        <v>1914054</v>
+        <v>17932480</v>
       </c>
       <c r="V70">
-        <v>19560.019607</v>
+        <v>160998.294117</v>
       </c>
       <c r="W70">
-        <v>47851.35000000001</v>
+        <v>448312</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0.8635683654133839</v>
       </c>
       <c r="Y70">
-        <v>47851.35000000001</v>
+        <v>387148.061035205</v>
       </c>
     </row>
     <row r="71">
@@ -7344,35 +7339,35 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1418193</t>
+          <t>46880</t>
         </is>
       </c>
       <c r="D71">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TLF HANSEN</t>
+          <t>TDY OFFICAL LODGING / CAT C</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7382,49 +7377,54 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>HANSEN TLF</t>
+          <t>WESTPAC INN</t>
         </is>
       </c>
       <c r="L71">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M71" s="2">
-        <v>43586</v>
+        <v>43116</v>
       </c>
       <c r="N71" s="2">
-        <v>43586</v>
+        <v>35521</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P71">
-        <v>29127</v>
+        <v>31705</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T71">
-        <v>29127</v>
+        <v>31798</v>
       </c>
       <c r="U71">
-        <v>26011272</v>
+        <v>28871645</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>296226.45098</v>
       </c>
       <c r="W71">
-        <v>650281.8000000001</v>
+        <v>721791.125</v>
       </c>
       <c r="X71">
-        <v>1</v>
+        <v>0.9970752877539468</v>
       </c>
       <c r="Y71">
-        <v>650281.8000000001</v>
+        <v>719680.09365762</v>
       </c>
     </row>
     <row r="72">
@@ -7440,35 +7440,35 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>53326</t>
+          <t>44509</t>
         </is>
       </c>
       <c r="D72">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING / CAT C</t>
+          <t>WESTPAC LODGE / CAT C</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7478,70 +7478,65 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>MOUNTAIN VIEW INN</t>
+          <t>WESTPAC LODGE</t>
         </is>
       </c>
       <c r="L72">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M72" s="2">
-        <v>41072</v>
+        <v>43118</v>
       </c>
       <c r="N72" s="2">
-        <v>31902</v>
+        <v>37462</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P72">
-        <v>17318</v>
+        <v>72954</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>34</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>20054</v>
+        <v>72954</v>
       </c>
       <c r="U72">
-        <v>17932480</v>
+        <v>66367838</v>
       </c>
       <c r="V72">
-        <v>160998.294117</v>
+        <v>680398.62745</v>
       </c>
       <c r="W72">
-        <v>448312</v>
+        <v>1659195.95</v>
       </c>
       <c r="X72">
-        <v>0.8635683654133839</v>
+        <v>1</v>
       </c>
       <c r="Y72">
-        <v>387148.061035205</v>
+        <v>1659195.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MCIPAC</t>
+          <t>MCIWEST</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MCB Butler</t>
+          <t>MCAS Miramar</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>46880</t>
+          <t>54005</t>
         </is>
       </c>
       <c r="D73">
@@ -7554,7 +7549,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TDY OFFICAL LODGING / CAT C</t>
+          <t>TRANSIENT QUARTERS</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -7569,7 +7564,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7579,17 +7574,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>WESTPAC INN</t>
+          <t>COMBINED BACHELORS OFFICERS QUARTERS (CBQ)</t>
         </is>
       </c>
       <c r="L73">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M73" s="2">
-        <v>43116</v>
+        <v>43748</v>
       </c>
       <c r="N73" s="2">
-        <v>35521</v>
+        <v>20999</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7597,13 +7592,13 @@
         </is>
       </c>
       <c r="P73">
-        <v>31705</v>
+        <v>40873</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7611,66 +7606,66 @@
         </is>
       </c>
       <c r="T73">
-        <v>31798</v>
+        <v>40873</v>
       </c>
       <c r="U73">
-        <v>28871645</v>
+        <v>17824951</v>
       </c>
       <c r="V73">
-        <v>296226.45098</v>
+        <v>189375.990196</v>
       </c>
       <c r="W73">
-        <v>721791.125</v>
+        <v>445623.775</v>
       </c>
       <c r="X73">
-        <v>0.9970752877539468</v>
+        <v>1</v>
       </c>
       <c r="Y73">
-        <v>719680.09365762</v>
+        <v>445623.775</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MCIPAC</t>
+          <t>MCIWEST</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MCB Butler</t>
+          <t>MCAS Miramar</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>44509</t>
+          <t>54004</t>
         </is>
       </c>
       <c r="D74">
-        <v>74020</v>
+        <v>74094</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PCS OFFICIAL LODGING</t>
+          <t>TDY OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>WESTPAC LODGE / CAT C</t>
+          <t>BOQ TRANSIENT W1/W2&amp;01/02</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>L (PCS)</t>
+          <t>L (TDY)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PCS Lodging</t>
+          <t>TDY Lodging</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -7680,49 +7675,54 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>WESTPAC LODGE</t>
+          <t>COMBINED BACHELORS OFFICERS QUARTERS (CBQ)</t>
         </is>
       </c>
       <c r="L74">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M74" s="2">
-        <v>43118</v>
+        <v>43752</v>
       </c>
       <c r="N74" s="2">
-        <v>37462</v>
+        <v>20128</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="P74">
-        <v>72954</v>
+        <v>72199</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
       </c>
       <c r="T74">
-        <v>72954</v>
+        <v>72199</v>
       </c>
       <c r="U74">
-        <v>66367838</v>
+        <v>31486401</v>
       </c>
       <c r="V74">
-        <v>680398.62745</v>
+        <v>334518.068627</v>
       </c>
       <c r="W74">
-        <v>1659195.95</v>
+        <v>787160.025</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>1659195.95</v>
+        <v>787160.025</v>
       </c>
     </row>
     <row r="75">
@@ -7738,35 +7738,35 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>54005</t>
+          <t>1171866</t>
         </is>
       </c>
       <c r="D75">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TRANSIENT QUARTERS</t>
+          <t>TEMPORARY LODGING NVY LDG</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>4325</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -7776,54 +7776,49 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>COMBINED BACHELORS OFFICERS QUARTERS (CBQ)</t>
+          <t>EAST WING - INNS OF THE CORPS</t>
         </is>
       </c>
       <c r="L75">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M75" s="2">
-        <v>43748</v>
+        <v>43742</v>
       </c>
       <c r="N75" s="2">
-        <v>20999</v>
+        <v>41431</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="P75">
-        <v>40873</v>
+        <v>27708</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>56</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>40873</v>
+        <v>27708</v>
       </c>
       <c r="U75">
-        <v>17824951</v>
+        <v>12083619</v>
       </c>
       <c r="V75">
-        <v>189375.990196</v>
+        <v>128378.872549</v>
       </c>
       <c r="W75">
-        <v>445623.775</v>
+        <v>302090.475</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>445623.775</v>
+        <v>302090.475</v>
       </c>
     </row>
     <row r="76">
@@ -7839,35 +7834,35 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>54004</t>
+          <t>55442</t>
         </is>
       </c>
       <c r="D76">
-        <v>74094</v>
+        <v>74020</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TDY OFFICIAL LODGING</t>
+          <t>PCS OFFICIAL LODGING</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BOQ TRANSIENT W1/W2&amp;01/02</t>
+          <t>TEMPORARY LODGING NVY LDG</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>L (TDY)</t>
+          <t>L (PCS)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>TDY Lodging</t>
+          <t>PCS Lodging</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>4312</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7877,54 +7872,49 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>COMBINED BACHELORS OFFICERS QUARTERS (CBQ)</t>
+          <t>MCCS INNS OF THE CORPS</t>
         </is>
       </c>
       <c r="L76">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M76" s="2">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="N76" s="2">
-        <v>20128</v>
+        <v>38576</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="P76">
-        <v>72199</v>
+        <v>36328</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>148</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>PN</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="T76">
-        <v>72199</v>
+        <v>36328</v>
       </c>
       <c r="U76">
-        <v>31486401</v>
+        <v>15842851</v>
       </c>
       <c r="V76">
-        <v>334518.068627</v>
+        <v>168317.735294</v>
       </c>
       <c r="W76">
-        <v>787160.025</v>
+        <v>396071.275</v>
       </c>
       <c r="X76">
         <v>1</v>
       </c>
       <c r="Y76">
-        <v>787160.025</v>
+        <v>396071.275</v>
       </c>
     </row>
     <row r="77">
@@ -7940,7 +7930,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1171866</t>
+          <t>1168519</t>
         </is>
       </c>
       <c r="D77">
@@ -7968,7 +7958,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -7978,7 +7968,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>EAST WING - INNS OF THE CORPS</t>
+          <t>WEST WING INNS OF THE CORPS</t>
         </is>
       </c>
       <c r="L77">
@@ -7988,7 +7978,7 @@
         <v>43742</v>
       </c>
       <c r="N77" s="2">
-        <v>41431</v>
+        <v>41417</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7996,7 +7986,7 @@
         </is>
       </c>
       <c r="P77">
-        <v>27708</v>
+        <v>31252</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -8005,213 +7995,21 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>27708</v>
+        <v>31252</v>
       </c>
       <c r="U77">
-        <v>12083619</v>
+        <v>13629178</v>
       </c>
       <c r="V77">
-        <v>128378.872549</v>
+        <v>144776.049019</v>
       </c>
       <c r="W77">
-        <v>302090.475</v>
+        <v>340729.45</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
       <c r="Y77">
-        <v>302090.475</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MCIWEST</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MCAS Miramar</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>55442</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>74020</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>PCS OFFICIAL LODGING</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>TEMPORARY LODGING NVY LDG</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>L (PCS)</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PCS Lodging</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2515</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Transient  Lodging</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>MCCS INNS OF THE CORPS</t>
-        </is>
-      </c>
-      <c r="L78">
-        <v>89</v>
-      </c>
-      <c r="M78" s="2">
-        <v>43748</v>
-      </c>
-      <c r="N78" s="2">
-        <v>38576</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="P78">
-        <v>36328</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>36328</v>
-      </c>
-      <c r="U78">
-        <v>15842851</v>
-      </c>
-      <c r="V78">
-        <v>168317.735294</v>
-      </c>
-      <c r="W78">
-        <v>396071.275</v>
-      </c>
-      <c r="X78">
-        <v>1</v>
-      </c>
-      <c r="Y78">
-        <v>396071.275</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MCIWEST</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>MCAS Miramar</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1168519</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>74020</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PCS OFFICIAL LODGING</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>TEMPORARY LODGING NVY LDG</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>L (PCS)</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PCS Lodging</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>2513</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Transient  Lodging</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>WEST WING INNS OF THE CORPS</t>
-        </is>
-      </c>
-      <c r="L79">
-        <v>92</v>
-      </c>
-      <c r="M79" s="2">
-        <v>43742</v>
-      </c>
-      <c r="N79" s="2">
-        <v>41417</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="P79">
-        <v>31252</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>31252</v>
-      </c>
-      <c r="U79">
-        <v>13629178</v>
-      </c>
-      <c r="V79">
-        <v>144776.049019</v>
-      </c>
-      <c r="W79">
-        <v>340729.45</v>
-      </c>
-      <c r="X79">
-        <v>1</v>
-      </c>
-      <c r="Y79">
         <v>340729.45</v>
       </c>
     </row>
